--- a/data/working.dataset.xlsx
+++ b/data/working.dataset.xlsx
@@ -537,10 +537,10 @@
         <v>62.62</v>
       </c>
       <c r="I4" t="n">
-        <v>5.185</v>
+        <v>5.19</v>
       </c>
       <c r="J4" t="n">
-        <v>6.0018</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -569,10 +569,10 @@
         <v>74.57</v>
       </c>
       <c r="I5" t="n">
-        <v>4.214</v>
+        <v>4.21</v>
       </c>
       <c r="J5" t="n">
-        <v>5.9872</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="6">
@@ -601,10 +601,10 @@
         <v>71.99</v>
       </c>
       <c r="I6" t="n">
-        <v>4.378</v>
+        <v>4.38</v>
       </c>
       <c r="J6" t="n">
-        <v>5.9398</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="7">
@@ -633,10 +633,10 @@
         <v>66.13</v>
       </c>
       <c r="I7" t="n">
-        <v>4.794</v>
+        <v>4.79</v>
       </c>
       <c r="J7" t="n">
-        <v>6.0332</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="8">
@@ -665,10 +665,10 @@
         <v>70.15</v>
       </c>
       <c r="I8" t="n">
-        <v>4.668</v>
+        <v>4.67</v>
       </c>
       <c r="J8" t="n">
-        <v>5.9172</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="9">
@@ -697,10 +697,10 @@
         <v>70.36</v>
       </c>
       <c r="I9" t="n">
-        <v>4.084</v>
+        <v>4.08</v>
       </c>
       <c r="J9" t="n">
-        <v>5.9308</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="10">
@@ -729,10 +729,10 @@
         <v>63.54</v>
       </c>
       <c r="I10" t="n">
-        <v>3.999</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>5.9931</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="11">
@@ -761,10 +761,10 @@
         <v>66.54</v>
       </c>
       <c r="I11" t="n">
-        <v>4.845</v>
+        <v>4.85</v>
       </c>
       <c r="J11" t="n">
-        <v>6.0399</v>
+        <v>6.04</v>
       </c>
     </row>
   </sheetData>
